--- a/biology/Botanique/Chacasina/Chacasina.xlsx
+++ b/biology/Botanique/Chacasina/Chacasina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La 'Chacasina' est une variété de pomme de terre sélectionnée au Pérou en 1995 pour permettre l'utilisation de semences vraies, c'est-à-dire de graines botaniques pour la production économique de plants (sous la forme de tubercules de petite taille) indemnes de maladies. Son nom se réfère à la ville de Chacas, chef-lieu de la province d'Asunción dans le centre-est du Pérou
@@ -515,10 +527,12 @@
           <t>Origine génétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Chacasina' est issue d'un croisement entre 'Yungay', variété locale très populaire dans les Andes  centrales et une lignée sélectionnée par le Centre international de la pomme de terre (CIP) pour sa résistance au mildiou[1].
-'Yungai', créée en 1971 dans le cadre du « Programme de la pomme de terre » (programa de papa) de l'Université nationale agronomique de la Molina (UNALM), résulte d'un croisement entre un hybride local (sous-espèce Solanum tuberosum sp. andigena) et une lignée américaine (sous-espèce Solanum tuberosum sp. tuberosum)[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Chacasina' est issue d'un croisement entre 'Yungay', variété locale très populaire dans les Andes  centrales et une lignée sélectionnée par le Centre international de la pomme de terre (CIP) pour sa résistance au mildiou.
+'Yungai', créée en 1971 dans le cadre du « Programme de la pomme de terre » (programa de papa) de l'Université nationale agronomique de la Molina (UNALM), résulte d'un croisement entre un hybride local (sous-espèce Solanum tuberosum sp. andigena) et une lignée américaine (sous-espèce Solanum tuberosum sp. tuberosum),.
 </t>
         </is>
       </c>
